--- a/biology/Microbiologie/Pleuronematidae/Pleuronematidae.xlsx
+++ b/biology/Microbiologie/Pleuronematidae/Pleuronematidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Pleuronematidae sont une famille de ciliés de la classe des Oligohymenophorea et de l'ordre des Pleuronematida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Pleuronema, dérivé du grec πλευρ / pleur, « côté, flanc, latéral », et du suffixe -nema (du grec ancien νήμα / nima, « fil, ficelle »), vraisemblablement en référence aux cils proéminents situés autour du cytostome.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Pleuronematidae ont une taille petite (&lt; 80 µm) à grande (&gt; 200 µm). Leur forme est ovoïde. Ils vivent généralement en natation libre. Leur ciliation somatique est holotriche (c. à d. homogène). Ils sont munis de cils ou de soies caudaux longs et raides. Ils ont des extrusomes somatiques sous forme de mucocystes proéminents en forme de bâtonnet. Leur région buccale est un sillon peu profond, occupant une grande partie de la surface ventrale, dominé par des cils paroraux, présents sous la forme d'un velum rigide et s'enroulant distinctement autour du cytostome sous-équatorial. Le polycinétide oral 2 est généralement sous forme de deux segments distincts ou dérivé de deux segments – un segment antérieur long et linéaire avec pas plus de deux files de kinétosomes en zigzag[note 1], et un segment postérieur, généralement en forme de « V ». Leur macronoyau est globulaire à ellipsoïde. Micronoyau, vacuole contractile et cytoprocte sont présents. Ils sont algivores [note 2] et bactérivores[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Pleuronematidae ont une taille petite (&lt; 80 µm) à grande (&gt; 200 µm). Leur forme est ovoïde. Ils vivent généralement en natation libre. Leur ciliation somatique est holotriche (c. à d. homogène). Ils sont munis de cils ou de soies caudaux longs et raides. Ils ont des extrusomes somatiques sous forme de mucocystes proéminents en forme de bâtonnet. Leur région buccale est un sillon peu profond, occupant une grande partie de la surface ventrale, dominé par des cils paroraux, présents sous la forme d'un velum rigide et s'enroulant distinctement autour du cytostome sous-équatorial. Le polycinétide oral 2 est généralement sous forme de deux segments distincts ou dérivé de deux segments – un segment antérieur long et linéaire avec pas plus de deux files de kinétosomes en zigzag[note 1], et un segment postérieur, généralement en forme de « V ». Leur macronoyau est globulaire à ellipsoïde. Micronoyau, vacuole contractile et cytoprocte sont présents. Ils sont algivores [note 2] et bactérivores.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Pleuronematidae vivent dans des habitats marins et d'eau douce, parfois associés, comme ectocommensaux, à certains invertébrés  (par exemple le genre Pleurocoptes sur des coelentérés hydractiniens)[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Pleuronematidae vivent dans des habitats marins et d'eau douce, parfois associés, comme ectocommensaux, à certains invertébrés  (par exemple le genre Pleurocoptes sur des coelentérés hydractiniens).
 </t>
         </is>
       </c>
@@ -604,17 +622,19 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (22 mars 2024)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (22 mars 2024) :
 Balantiophorus Schewiakoff, 1889
 Lembus Cohn, 1866
 Pleurocoptes Wallengren, 1896
 Pleuronema Dujardin, 1841  genre type
 Espèce type : Pleuronema crassum Dujardin, 1841
-Espèce synonyme : Pleuronema (Paramaecium) chrysalis (Ehrenberg, 1838) Perty, 1852[3].
+Espèce synonyme : Pleuronema (Paramaecium) chrysalis (Ehrenberg, 1838) Perty, 1852.
 Schizocalyptra Dragesco, 1968
-Selon Lynn (2010)[1] :
+Selon Lynn (2010) :
 Gajewskiella Obolkina, 1989
 Pleurocoptes Wallengren, 1896
 Pleuronema Dujardin, 1841
@@ -646,9 +666,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Pleuronematidae Kent, 1881[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Pleuronematidae Kent, 1881.
 </t>
         </is>
       </c>
